--- a/Code/Results/Cases/Case_4_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9887415884955431</v>
+        <v>0.381467440838577</v>
       </c>
       <c r="C2">
-        <v>0.2501178797220263</v>
+        <v>0.08471188263121121</v>
       </c>
       <c r="D2">
-        <v>0.1975984174167564</v>
+        <v>0.07817739636989529</v>
       </c>
       <c r="E2">
-        <v>0.2963510381554997</v>
+        <v>0.1321307422917499</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9540636328143108</v>
+        <v>1.063198050451817</v>
       </c>
       <c r="H2">
-        <v>0.6190390225718119</v>
+        <v>1.039708937878558</v>
       </c>
       <c r="I2">
-        <v>0.5661009949327749</v>
+        <v>0.84507816982984</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.210776179913609</v>
+        <v>0.4499417794007172</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6666265682594101</v>
+        <v>0.2696813439553907</v>
       </c>
       <c r="N2">
-        <v>1.019526825217014</v>
+        <v>1.907622604444569</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8557249342257478</v>
+        <v>0.3451514959369888</v>
       </c>
       <c r="C3">
-        <v>0.2159062565532395</v>
+        <v>0.07535324325306192</v>
       </c>
       <c r="D3">
-        <v>0.1711147745719757</v>
+        <v>0.07095966224380845</v>
       </c>
       <c r="E3">
-        <v>0.2568137574782483</v>
+        <v>0.1220732104643147</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8839729332289039</v>
+        <v>1.050880262502631</v>
       </c>
       <c r="H3">
-        <v>0.5938072350469383</v>
+        <v>1.038839395086342</v>
       </c>
       <c r="I3">
-        <v>0.5426372318639494</v>
+        <v>0.8435318156932468</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.047217093953719</v>
+        <v>0.4052718456768787</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5762676512834162</v>
+        <v>0.2458305003562629</v>
       </c>
       <c r="N3">
-        <v>1.052589584730185</v>
+        <v>1.922175776200191</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7746876854744471</v>
+        <v>0.3229969342560253</v>
       </c>
       <c r="C4">
-        <v>0.1951375538507989</v>
+        <v>0.06963414685066027</v>
       </c>
       <c r="D4">
-        <v>0.1550472597493524</v>
+        <v>0.06656436765099727</v>
       </c>
       <c r="E4">
-        <v>0.2330010054154101</v>
+        <v>0.1159804873851797</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8428086082599719</v>
+        <v>1.043956324700432</v>
       </c>
       <c r="H4">
-        <v>0.5793753484182105</v>
+        <v>1.038777973989994</v>
       </c>
       <c r="I4">
-        <v>0.5292897049674394</v>
+        <v>0.8430047865315444</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9476593560856941</v>
+        <v>0.3780086838154659</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5215219582921122</v>
+        <v>0.2313205919215875</v>
       </c>
       <c r="N4">
-        <v>1.074372277805054</v>
+        <v>1.93172775197548</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7417994813814346</v>
+        <v>0.314004944827758</v>
       </c>
       <c r="C5">
-        <v>0.1867249395666732</v>
+        <v>0.06731030431990348</v>
       </c>
       <c r="D5">
-        <v>0.1485421457691842</v>
+        <v>0.06478236409206772</v>
       </c>
       <c r="E5">
-        <v>0.2233995011618717</v>
+        <v>0.1135181912612993</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8264689795929456</v>
+        <v>1.041295129104142</v>
       </c>
       <c r="H5">
-        <v>0.5737447598265533</v>
+        <v>1.038871695390867</v>
       </c>
       <c r="I5">
-        <v>0.5241001579651794</v>
+        <v>0.8428961102187316</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9072738046956772</v>
+        <v>0.3669400082538914</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4993730272501011</v>
+        <v>0.2254412709067637</v>
       </c>
       <c r="N5">
-        <v>1.08360682721402</v>
+        <v>1.935775044775248</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.736345890553963</v>
+        <v>0.3125140188705302</v>
       </c>
       <c r="C6">
-        <v>0.1853308510866327</v>
+        <v>0.06692483623970702</v>
       </c>
       <c r="D6">
-        <v>0.1474643727729585</v>
+        <v>0.06448701298201343</v>
       </c>
       <c r="E6">
-        <v>0.2218109683243199</v>
+        <v>0.1131105622322082</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8237810855533496</v>
+        <v>1.040862914366102</v>
       </c>
       <c r="H6">
-        <v>0.5728244831089029</v>
+        <v>1.038894428370327</v>
       </c>
       <c r="I6">
-        <v>0.5232530495097052</v>
+        <v>0.8428844684582657</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9005780582944283</v>
+        <v>0.3651045553943959</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4957042170033219</v>
+        <v>0.2244670349157616</v>
       </c>
       <c r="N6">
-        <v>1.085161422228275</v>
+        <v>1.936456438059899</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7742436279688434</v>
+        <v>0.3228755185766659</v>
       </c>
       <c r="C7">
-        <v>0.1950239040165798</v>
+        <v>0.06960277954374305</v>
       </c>
       <c r="D7">
-        <v>0.1549593651538146</v>
+        <v>0.066540298080497</v>
       </c>
       <c r="E7">
-        <v>0.232871119563633</v>
+        <v>0.1159471971605441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8425865295685782</v>
+        <v>1.043919786073261</v>
       </c>
       <c r="H7">
-        <v>0.579298418571355</v>
+        <v>1.038778757213322</v>
       </c>
       <c r="I7">
-        <v>0.5292187272764224</v>
+        <v>0.8430028915008378</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9471139956391994</v>
+        <v>0.3778592406837902</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5212226318072624</v>
+        <v>0.2312411657052778</v>
       </c>
       <c r="N7">
-        <v>1.074495387712133</v>
+        <v>1.931781708710851</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9427301570947009</v>
+        <v>0.3689159342582684</v>
       </c>
       <c r="C8">
-        <v>0.2382668961267598</v>
+        <v>0.08147933219595416</v>
       </c>
       <c r="D8">
-        <v>0.1884228642070411</v>
+        <v>0.07568113300771984</v>
       </c>
       <c r="E8">
-        <v>0.2826136095268055</v>
+        <v>0.1286456032605159</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9294858077760466</v>
+        <v>1.058817971131347</v>
       </c>
       <c r="H8">
-        <v>0.6101089250249316</v>
+        <v>1.039311017553118</v>
       </c>
       <c r="I8">
-        <v>0.5577804351283291</v>
+        <v>0.8444572266712456</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.154180050503641</v>
+        <v>0.4345054315976995</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6353029942794564</v>
+        <v>0.2614294691759866</v>
       </c>
       <c r="N8">
-        <v>1.030610094634078</v>
+        <v>1.91251252290045</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279386901797409</v>
+        <v>0.4603421249071857</v>
       </c>
       <c r="C9">
-        <v>0.3253868899456052</v>
+        <v>0.1049898898190236</v>
       </c>
       <c r="D9">
-        <v>0.2558803621479768</v>
+        <v>0.09389824754859433</v>
       </c>
       <c r="E9">
-        <v>0.3845289692198222</v>
+        <v>0.1542151704746146</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.116476706593488</v>
+        <v>1.093125202984012</v>
       </c>
       <c r="H9">
-        <v>0.6797316504776063</v>
+        <v>1.0441076876522</v>
       </c>
       <c r="I9">
-        <v>0.6230084986211537</v>
+        <v>0.8506682682202182</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.568760407124302</v>
+        <v>0.54690068364377</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8660481471818855</v>
+        <v>0.32171176364281</v>
       </c>
       <c r="N9">
-        <v>0.9570256163591111</v>
+        <v>1.879623441515427</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.532390445071456</v>
+        <v>0.5282184908800787</v>
       </c>
       <c r="C10">
-        <v>0.3914766806555008</v>
+        <v>0.1224066745021162</v>
       </c>
       <c r="D10">
-        <v>0.3070149699735509</v>
+        <v>0.1074658426261692</v>
       </c>
       <c r="E10">
-        <v>0.4631333299211491</v>
+        <v>0.1734273458002846</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.266591978843621</v>
+        <v>1.121466752371333</v>
       </c>
       <c r="H10">
-        <v>0.7376899928449632</v>
+        <v>1.049927131466916</v>
       </c>
       <c r="I10">
-        <v>0.6777828623044897</v>
+        <v>0.8572910982319897</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.881043755366392</v>
+        <v>0.6302975284988861</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.041699690984387</v>
+        <v>0.3666869756999134</v>
       </c>
       <c r="N10">
-        <v>0.911647505522815</v>
+        <v>1.858456226358975</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.649172540005281</v>
+        <v>0.559253013118564</v>
       </c>
       <c r="C11">
-        <v>0.4221606184839004</v>
+        <v>0.1303632569571107</v>
       </c>
       <c r="D11">
-        <v>0.3307303999889797</v>
+        <v>0.113679198544034</v>
       </c>
       <c r="E11">
-        <v>0.499966926864758</v>
+        <v>0.1822642252568158</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.338295271569422</v>
+        <v>1.135048181948378</v>
       </c>
       <c r="H11">
-        <v>0.7658298144417302</v>
+        <v>1.053074728582089</v>
       </c>
       <c r="I11">
-        <v>0.7044921658516188</v>
+        <v>0.8607538940568062</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.025394684049331</v>
+        <v>0.6684198625530371</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.123392819219831</v>
+        <v>0.387302071746646</v>
       </c>
       <c r="N11">
-        <v>0.8931568225703614</v>
+        <v>1.849479695325478</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.693679362602609</v>
+        <v>0.5710276398963288</v>
       </c>
       <c r="C12">
-        <v>0.433884211421713</v>
+        <v>0.133381168247837</v>
       </c>
       <c r="D12">
-        <v>0.3397862575814088</v>
+        <v>0.1160380574261239</v>
       </c>
       <c r="E12">
-        <v>0.514094296264787</v>
+        <v>0.1856247948169241</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.365998296734062</v>
+        <v>1.140290652053608</v>
       </c>
       <c r="H12">
-        <v>0.7767680598641391</v>
+        <v>1.054338698570007</v>
       </c>
       <c r="I12">
-        <v>0.7148920218614876</v>
+        <v>0.8621300682116271</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.080442527027003</v>
+        <v>0.6828825606411328</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.154627127595944</v>
+        <v>0.3951312230455599</v>
       </c>
       <c r="N12">
-        <v>0.886489362464971</v>
+        <v>1.8461745711597</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.684080696369335</v>
+        <v>0.5684907627394864</v>
       </c>
       <c r="C13">
-        <v>0.4313544307356665</v>
+        <v>0.1327309864442157</v>
       </c>
       <c r="D13">
-        <v>0.3378323958538658</v>
+        <v>0.1155297675892797</v>
       </c>
       <c r="E13">
-        <v>0.5110433216546895</v>
+        <v>0.1849003987188098</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.360006459534361</v>
+        <v>1.139157160973127</v>
       </c>
       <c r="H13">
-        <v>0.7743992960509161</v>
+        <v>1.054063274249899</v>
       </c>
       <c r="I13">
-        <v>0.7126390500226236</v>
+        <v>0.8618307957620743</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.068568907542357</v>
+        <v>0.6797665762503016</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.14788625660335</v>
+        <v>0.3934440628576255</v>
       </c>
       <c r="N13">
-        <v>0.8879100130095026</v>
+        <v>1.846882199794685</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.652828202680865</v>
+        <v>0.5602212677411558</v>
       </c>
       <c r="C14">
-        <v>0.4231229436277602</v>
+        <v>0.1306114430618948</v>
       </c>
       <c r="D14">
-        <v>0.331473860048817</v>
+        <v>0.1138731428643354</v>
       </c>
       <c r="E14">
-        <v>0.5011254509403429</v>
+        <v>0.182540414532042</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.340563021017573</v>
+        <v>1.1354774869057</v>
       </c>
       <c r="H14">
-        <v>0.7667238874987845</v>
+        <v>1.053177271716692</v>
       </c>
       <c r="I14">
-        <v>0.7053418744011708</v>
+        <v>0.8608658112683472</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.029915442927006</v>
+        <v>0.6696091841401994</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.125956240012442</v>
+        <v>0.3879457249466327</v>
       </c>
       <c r="N14">
-        <v>0.8926014288105648</v>
+        <v>1.849205893505456</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.633723414891222</v>
+        <v>0.5551588945352819</v>
       </c>
       <c r="C15">
-        <v>0.4180949739415212</v>
+        <v>0.129313805898164</v>
       </c>
       <c r="D15">
-        <v>0.3275891987359785</v>
+        <v>0.1128591945358579</v>
       </c>
       <c r="E15">
-        <v>0.4950745901199198</v>
+        <v>0.1810967177381855</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.328726914480427</v>
+        <v>1.133236548334139</v>
       </c>
       <c r="H15">
-        <v>0.7620600944586045</v>
+        <v>1.052643954759475</v>
       </c>
       <c r="I15">
-        <v>0.7009102146944031</v>
+        <v>0.8602831859921167</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.006291001490411</v>
+        <v>0.6633909531797428</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.112563707601474</v>
+        <v>0.3845807938050143</v>
       </c>
       <c r="N15">
-        <v>0.8955194137092661</v>
+        <v>1.850641484471005</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.524795877056278</v>
+        <v>0.5261934685585743</v>
       </c>
       <c r="C16">
-        <v>0.3894851399605272</v>
+        <v>0.1218873773064217</v>
       </c>
       <c r="D16">
-        <v>0.3054750854251864</v>
+        <v>0.1070606218274435</v>
       </c>
       <c r="E16">
-        <v>0.4607498611581775</v>
+        <v>0.1728518125832181</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.261979673107817</v>
+        <v>1.120593070360826</v>
       </c>
       <c r="H16">
-        <v>0.7358889550006893</v>
+        <v>1.049731504489301</v>
       </c>
       <c r="I16">
-        <v>0.6760757348306043</v>
+        <v>0.8570738670878413</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.871660840112298</v>
+        <v>0.6278098640577241</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.03640031120127</v>
+        <v>0.3653428865858075</v>
       </c>
       <c r="N16">
-        <v>0.9129013093574727</v>
+        <v>1.859056016592277</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.458433075213634</v>
+        <v>0.5084643276563554</v>
       </c>
       <c r="C17">
-        <v>0.3721029000004421</v>
+        <v>0.1173401766546931</v>
       </c>
       <c r="D17">
-        <v>0.2920319484379093</v>
+        <v>0.1035140173672886</v>
       </c>
       <c r="E17">
-        <v>0.4399850301517105</v>
+        <v>0.1678189030439938</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.221947619810578</v>
+        <v>1.113013415682843</v>
       </c>
       <c r="H17">
-        <v>0.7203067589511534</v>
+        <v>1.048073020818435</v>
       </c>
       <c r="I17">
-        <v>0.6613186345898256</v>
+        <v>0.8552204422421141</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.789694545813319</v>
+        <v>0.6060293491881055</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9901629665724201</v>
+        <v>0.3535811169850049</v>
       </c>
       <c r="N17">
-        <v>0.9241328237400879</v>
+        <v>1.864385373781417</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.420419296021464</v>
+        <v>0.4982817980488221</v>
       </c>
       <c r="C18">
-        <v>0.3621623969771974</v>
+        <v>0.1147279039739431</v>
       </c>
       <c r="D18">
-        <v>0.284341894385534</v>
+        <v>0.101477997358856</v>
       </c>
       <c r="E18">
-        <v>0.4281413199725819</v>
+        <v>0.1649332363617617</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.19923980385488</v>
+        <v>1.108718597485336</v>
       </c>
       <c r="H18">
-        <v>0.7115095207720117</v>
+        <v>1.047166189592446</v>
       </c>
       <c r="I18">
-        <v>0.6529976066188325</v>
+        <v>0.8541967504090593</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.742761763521401</v>
+        <v>0.5935191545970326</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9637340627356821</v>
+        <v>0.3468306915150166</v>
       </c>
       <c r="N18">
-        <v>0.9307938127675399</v>
+        <v>1.867512083602861</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40757414897746</v>
+        <v>0.4948367134921909</v>
       </c>
       <c r="C19">
-        <v>0.3588061168534011</v>
+        <v>0.113843972654422</v>
       </c>
       <c r="D19">
-        <v>0.2817451105911459</v>
+        <v>0.1007893032610667</v>
       </c>
       <c r="E19">
-        <v>0.4241476552926002</v>
+        <v>0.1639577592661396</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.19160414976372</v>
+        <v>1.107275561702522</v>
       </c>
       <c r="H19">
-        <v>0.708558519842228</v>
+        <v>1.046867235954608</v>
       </c>
       <c r="I19">
-        <v>0.6502081014271965</v>
+        <v>0.8538574141883046</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.726905939612891</v>
+        <v>0.5892864017990007</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9548129269560448</v>
+        <v>0.3445476182257039</v>
       </c>
       <c r="N19">
-        <v>0.933082892176806</v>
+        <v>1.868581272306649</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.465481042321926</v>
+        <v>0.5103500934833392</v>
       </c>
       <c r="C20">
-        <v>0.3739472334416405</v>
+        <v>0.1178239065213234</v>
       </c>
       <c r="D20">
-        <v>0.2934585680387869</v>
+        <v>0.1038911562290394</v>
       </c>
       <c r="E20">
-        <v>0.4421849966044817</v>
+        <v>0.1683537180624839</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.22617582123911</v>
+        <v>1.113813573252912</v>
       </c>
       <c r="H20">
-        <v>0.7219482213222648</v>
+        <v>1.048244695419811</v>
       </c>
       <c r="I20">
-        <v>0.6628720894309268</v>
+        <v>0.8554133582495353</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.798397663373322</v>
+        <v>0.6083461229868021</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9950675835553753</v>
+        <v>0.3548316609261519</v>
       </c>
       <c r="N20">
-        <v>0.9229162415306789</v>
+        <v>1.863811697601271</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.661999763986756</v>
+        <v>0.562649608148746</v>
       </c>
       <c r="C21">
-        <v>0.4255377727858729</v>
+        <v>0.1312338698793383</v>
       </c>
       <c r="D21">
-        <v>0.3333393867413577</v>
+        <v>0.1143595706257088</v>
       </c>
       <c r="E21">
-        <v>0.5040334955496988</v>
+        <v>0.1832332106540235</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.346258585743215</v>
+        <v>1.136555593055988</v>
       </c>
       <c r="H21">
-        <v>0.768970449537278</v>
+        <v>1.053435556092523</v>
       </c>
       <c r="I21">
-        <v>0.7074772441021793</v>
+        <v>0.8611474881556305</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.041257974742962</v>
+        <v>0.6725919342460429</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.132389151744981</v>
+        <v>0.3895601027941851</v>
       </c>
       <c r="N21">
-        <v>0.891214153886196</v>
+        <v>1.84852081258795</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.792113313300831</v>
+        <v>0.59696163101097</v>
       </c>
       <c r="C22">
-        <v>0.4598710354819389</v>
+        <v>0.1400268142569985</v>
       </c>
       <c r="D22">
-        <v>0.3598482961356098</v>
+        <v>0.1212362535360114</v>
       </c>
       <c r="E22">
-        <v>0.5455134236877655</v>
+        <v>0.193040915529842</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.427980534189828</v>
+        <v>1.151998855455105</v>
       </c>
       <c r="H22">
-        <v>0.8013622821668775</v>
+        <v>1.057248055176302</v>
       </c>
       <c r="I22">
-        <v>0.7383090884345194</v>
+        <v>0.8652733755061917</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.202256844260376</v>
+        <v>0.714735336835048</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.223901462668849</v>
+        <v>0.4123893692304819</v>
       </c>
       <c r="N22">
-        <v>0.872458593076658</v>
+        <v>1.839075906082343</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.722501190839978</v>
+        <v>0.5786366741901929</v>
       </c>
       <c r="C23">
-        <v>0.4414849415572633</v>
+        <v>0.1353311915183895</v>
       </c>
       <c r="D23">
-        <v>0.3456557521661665</v>
+        <v>0.1175628241602027</v>
       </c>
       <c r="E23">
-        <v>0.5232691533418219</v>
+        <v>0.1877986681960664</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.384046244508426</v>
+        <v>1.143703275673033</v>
       </c>
       <c r="H23">
-        <v>0.7839125626885846</v>
+        <v>1.055174791489947</v>
       </c>
       <c r="I23">
-        <v>0.7216899035394562</v>
+        <v>0.8630366392355384</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.116100625634374</v>
+        <v>0.6922284088849153</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.174883216192697</v>
+        <v>0.4001927686270648</v>
       </c>
       <c r="N23">
-        <v>0.8822801571016043</v>
+        <v>1.84406654967664</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.462294226243216</v>
+        <v>0.5094975070096837</v>
       </c>
       <c r="C24">
-        <v>0.3731132470289822</v>
+        <v>0.1176052061101132</v>
       </c>
       <c r="D24">
-        <v>0.2928134738834274</v>
+        <v>0.1037206425038164</v>
       </c>
       <c r="E24">
-        <v>0.4411900999708607</v>
+        <v>0.1681119038582466</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.224263299109111</v>
+        <v>1.113451626342567</v>
       </c>
       <c r="H24">
-        <v>0.7212056161844487</v>
+        <v>1.048166936008101</v>
       </c>
       <c r="I24">
-        <v>0.6621692667858454</v>
+        <v>0.855326010515931</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.79446239398257</v>
+        <v>0.6072986730733874</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9928497310087891</v>
+        <v>0.3542662539904171</v>
       </c>
       <c r="N24">
-        <v>0.923465625292998</v>
+        <v>1.864070861011427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.187461192772133</v>
+        <v>0.4354857413298703</v>
       </c>
       <c r="C25">
-        <v>0.3015048311588089</v>
+        <v>0.09860510391322919</v>
       </c>
       <c r="D25">
-        <v>0.2373900998056513</v>
+        <v>0.0889382113253987</v>
       </c>
       <c r="E25">
-        <v>0.3563865317842314</v>
+        <v>0.1472244532654017</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.06385822342672</v>
+        <v>1.083295781067108</v>
       </c>
       <c r="H25">
-        <v>0.65979436256643</v>
+        <v>1.042407524555159</v>
       </c>
       <c r="I25">
-        <v>0.604254896572975</v>
+        <v>0.8486271917473616</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.455448167685091</v>
+        <v>0.5163522404556886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8026928877462538</v>
+        <v>0.3052852209564278</v>
       </c>
       <c r="N25">
-        <v>0.9754910900043114</v>
+        <v>1.887995392565131</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.381467440838577</v>
+        <v>0.9887415884954862</v>
       </c>
       <c r="C2">
-        <v>0.08471188263121121</v>
+        <v>0.250117879721671</v>
       </c>
       <c r="D2">
-        <v>0.07817739636989529</v>
+        <v>0.1975984174167849</v>
       </c>
       <c r="E2">
-        <v>0.1321307422917499</v>
+        <v>0.2963510381554642</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.063198050451817</v>
+        <v>0.954063632814325</v>
       </c>
       <c r="H2">
-        <v>1.039708937878558</v>
+        <v>0.6190390225718119</v>
       </c>
       <c r="I2">
-        <v>0.84507816982984</v>
+        <v>0.566100994932782</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4499417794007172</v>
+        <v>1.210776179913665</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2696813439553907</v>
+        <v>0.6666265682594101</v>
       </c>
       <c r="N2">
-        <v>1.907622604444569</v>
+        <v>1.019526825217014</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3451514959369888</v>
+        <v>0.8557249342256341</v>
       </c>
       <c r="C3">
-        <v>0.07535324325306192</v>
+        <v>0.2159062565529979</v>
       </c>
       <c r="D3">
-        <v>0.07095966224380845</v>
+        <v>0.1711147745718478</v>
       </c>
       <c r="E3">
-        <v>0.1220732104643147</v>
+        <v>0.2568137574782199</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.050880262502631</v>
+        <v>0.8839729332289465</v>
       </c>
       <c r="H3">
-        <v>1.038839395086342</v>
+        <v>0.593807235047052</v>
       </c>
       <c r="I3">
-        <v>0.8435318156932468</v>
+        <v>0.5426372318639494</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4052718456768787</v>
+        <v>1.047217093953748</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2458305003562629</v>
+        <v>0.5762676512834091</v>
       </c>
       <c r="N3">
-        <v>1.922175776200191</v>
+        <v>1.052589584730235</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3229969342560253</v>
+        <v>0.7746876854745608</v>
       </c>
       <c r="C4">
-        <v>0.06963414685066027</v>
+        <v>0.1951375538505715</v>
       </c>
       <c r="D4">
-        <v>0.06656436765099727</v>
+        <v>0.155047259749324</v>
       </c>
       <c r="E4">
-        <v>0.1159804873851797</v>
+        <v>0.2330010054154243</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.043956324700432</v>
+        <v>0.8428086082599862</v>
       </c>
       <c r="H4">
-        <v>1.038777973989994</v>
+        <v>0.5793753484182105</v>
       </c>
       <c r="I4">
-        <v>0.8430047865315444</v>
+        <v>0.529289704967411</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3780086838154659</v>
+        <v>0.9476593560856656</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2313205919215875</v>
+        <v>0.5215219582921264</v>
       </c>
       <c r="N4">
-        <v>1.93172775197548</v>
+        <v>1.074372277805026</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.314004944827758</v>
+        <v>0.7417994813812641</v>
       </c>
       <c r="C5">
-        <v>0.06731030431990348</v>
+        <v>0.1867249395662185</v>
       </c>
       <c r="D5">
-        <v>0.06478236409206772</v>
+        <v>0.1485421457693548</v>
       </c>
       <c r="E5">
-        <v>0.1135181912612993</v>
+        <v>0.2233995011618788</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.041295129104142</v>
+        <v>0.8264689795929456</v>
       </c>
       <c r="H5">
-        <v>1.038871695390867</v>
+        <v>0.5737447598265533</v>
       </c>
       <c r="I5">
-        <v>0.8428961102187316</v>
+        <v>0.5241001579651794</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3669400082538914</v>
+        <v>0.9072738046956488</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2254412709067637</v>
+        <v>0.4993730272501082</v>
       </c>
       <c r="N5">
-        <v>1.935775044775248</v>
+        <v>1.083606827214012</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3125140188705302</v>
+        <v>0.736345890553963</v>
       </c>
       <c r="C6">
-        <v>0.06692483623970702</v>
+        <v>0.1853308510862917</v>
       </c>
       <c r="D6">
-        <v>0.06448701298201343</v>
+        <v>0.147464372773257</v>
       </c>
       <c r="E6">
-        <v>0.1131105622322082</v>
+        <v>0.221810968324327</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.040862914366102</v>
+        <v>0.8237810855533212</v>
       </c>
       <c r="H6">
-        <v>1.038894428370327</v>
+        <v>0.5728244831089029</v>
       </c>
       <c r="I6">
-        <v>0.8428844684582657</v>
+        <v>0.5232530495097123</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3651045553943959</v>
+        <v>0.9005780582945135</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2244670349157616</v>
+        <v>0.4957042170033219</v>
       </c>
       <c r="N6">
-        <v>1.936456438059899</v>
+        <v>1.085161422228325</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3228755185766659</v>
+        <v>0.774243627968815</v>
       </c>
       <c r="C7">
-        <v>0.06960277954374305</v>
+        <v>0.1950239040164661</v>
       </c>
       <c r="D7">
-        <v>0.066540298080497</v>
+        <v>0.1549593651538572</v>
       </c>
       <c r="E7">
-        <v>0.1159471971605441</v>
+        <v>0.232871119563633</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.043919786073261</v>
+        <v>0.8425865295685497</v>
       </c>
       <c r="H7">
-        <v>1.038778757213322</v>
+        <v>0.579298418571355</v>
       </c>
       <c r="I7">
-        <v>0.8430028915008378</v>
+        <v>0.5292187272764153</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3778592406837902</v>
+        <v>0.9471139956392278</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2312411657052778</v>
+        <v>0.5212226318072553</v>
       </c>
       <c r="N7">
-        <v>1.931781708710851</v>
+        <v>1.074495387712133</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3689159342582684</v>
+        <v>0.9427301570948714</v>
       </c>
       <c r="C8">
-        <v>0.08147933219595416</v>
+        <v>0.2382668961273566</v>
       </c>
       <c r="D8">
-        <v>0.07568113300771984</v>
+        <v>0.1884228642068138</v>
       </c>
       <c r="E8">
-        <v>0.1286456032605159</v>
+        <v>0.2826136095268126</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.058817971131347</v>
+        <v>0.9294858077760608</v>
       </c>
       <c r="H8">
-        <v>1.039311017553118</v>
+        <v>0.6101089250249316</v>
       </c>
       <c r="I8">
-        <v>0.8444572266712456</v>
+        <v>0.5577804351283362</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4345054315976995</v>
+        <v>1.154180050503669</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2614294691759866</v>
+        <v>0.6353029942794635</v>
       </c>
       <c r="N8">
-        <v>1.91251252290045</v>
+        <v>1.030610094634071</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4603421249071857</v>
+        <v>1.279386901797295</v>
       </c>
       <c r="C9">
-        <v>0.1049898898190236</v>
+        <v>0.3253868899456336</v>
       </c>
       <c r="D9">
-        <v>0.09389824754859433</v>
+        <v>0.25588036214792</v>
       </c>
       <c r="E9">
-        <v>0.1542151704746146</v>
+        <v>0.3845289692198364</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.093125202984012</v>
+        <v>1.116476706593446</v>
       </c>
       <c r="H9">
-        <v>1.0441076876522</v>
+        <v>0.6797316504774926</v>
       </c>
       <c r="I9">
-        <v>0.8506682682202182</v>
+        <v>0.6230084986211466</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.54690068364377</v>
+        <v>1.56876040712433</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.32171176364281</v>
+        <v>0.8660481471818926</v>
       </c>
       <c r="N9">
-        <v>1.879623441515427</v>
+        <v>0.9570256163590969</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5282184908800787</v>
+        <v>1.53239044507157</v>
       </c>
       <c r="C10">
-        <v>0.1224066745021162</v>
+        <v>0.3914766806556145</v>
       </c>
       <c r="D10">
-        <v>0.1074658426261692</v>
+        <v>0.3070149699735509</v>
       </c>
       <c r="E10">
-        <v>0.1734273458002846</v>
+        <v>0.4631333299211207</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.121466752371333</v>
+        <v>1.266591978843621</v>
       </c>
       <c r="H10">
-        <v>1.049927131466916</v>
+        <v>0.7376899928451337</v>
       </c>
       <c r="I10">
-        <v>0.8572910982319897</v>
+        <v>0.6777828623044968</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6302975284988861</v>
+        <v>1.881043755366335</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3666869756999134</v>
+        <v>1.04169969098438</v>
       </c>
       <c r="N10">
-        <v>1.858456226358975</v>
+        <v>0.911647505522815</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.559253013118564</v>
+        <v>1.64917254000531</v>
       </c>
       <c r="C11">
-        <v>0.1303632569571107</v>
+        <v>0.4221606184837299</v>
       </c>
       <c r="D11">
-        <v>0.113679198544034</v>
+        <v>0.3307303999889797</v>
       </c>
       <c r="E11">
-        <v>0.1822642252568158</v>
+        <v>0.4999669268647438</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.135048181948378</v>
+        <v>1.338295271569365</v>
       </c>
       <c r="H11">
-        <v>1.053074728582089</v>
+        <v>0.7658298144417586</v>
       </c>
       <c r="I11">
-        <v>0.8607538940568062</v>
+        <v>0.7044921658516259</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6684198625530371</v>
+        <v>2.025394684049274</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.387302071746646</v>
+        <v>1.123392819219831</v>
       </c>
       <c r="N11">
-        <v>1.849479695325478</v>
+        <v>0.8931568225703614</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5710276398963288</v>
+        <v>1.693679362602666</v>
       </c>
       <c r="C12">
-        <v>0.133381168247837</v>
+        <v>0.4338842114218266</v>
       </c>
       <c r="D12">
-        <v>0.1160380574261239</v>
+        <v>0.3397862575813235</v>
       </c>
       <c r="E12">
-        <v>0.1856247948169241</v>
+        <v>0.514094296264787</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.140290652053608</v>
+        <v>1.365998296734091</v>
       </c>
       <c r="H12">
-        <v>1.054338698570007</v>
+        <v>0.7767680598642812</v>
       </c>
       <c r="I12">
-        <v>0.8621300682116271</v>
+        <v>0.7148920218614947</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6828825606411328</v>
+        <v>2.080442527026889</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3951312230455599</v>
+        <v>1.154627127595958</v>
       </c>
       <c r="N12">
-        <v>1.8461745711597</v>
+        <v>0.8864893624650421</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5684907627394864</v>
+        <v>1.684080696369278</v>
       </c>
       <c r="C13">
-        <v>0.1327309864442157</v>
+        <v>0.431354430735837</v>
       </c>
       <c r="D13">
-        <v>0.1155297675892797</v>
+        <v>0.3378323958540506</v>
       </c>
       <c r="E13">
-        <v>0.1849003987188098</v>
+        <v>0.5110433216546397</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.139157160973127</v>
+        <v>1.360006459534418</v>
       </c>
       <c r="H13">
-        <v>1.054063274249899</v>
+        <v>0.7743992960510582</v>
       </c>
       <c r="I13">
-        <v>0.8618307957620743</v>
+        <v>0.7126390500226236</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6797665762503016</v>
+        <v>2.068568907542385</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3934440628576255</v>
+        <v>1.147886256603343</v>
       </c>
       <c r="N13">
-        <v>1.846882199794685</v>
+        <v>0.8879100130096305</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5602212677411558</v>
+        <v>1.652828202680837</v>
       </c>
       <c r="C14">
-        <v>0.1306114430618948</v>
+        <v>0.4231229436277033</v>
       </c>
       <c r="D14">
-        <v>0.1138731428643354</v>
+        <v>0.3314738600490159</v>
       </c>
       <c r="E14">
-        <v>0.182540414532042</v>
+        <v>0.5011254509403642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.1354774869057</v>
+        <v>1.340563021017545</v>
       </c>
       <c r="H14">
-        <v>1.053177271716692</v>
+        <v>0.7667238874987845</v>
       </c>
       <c r="I14">
-        <v>0.8608658112683472</v>
+        <v>0.705341874401185</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6696091841401994</v>
+        <v>2.029915442927006</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3879457249466327</v>
+        <v>1.125956240012435</v>
       </c>
       <c r="N14">
-        <v>1.849205893505456</v>
+        <v>0.8926014288105364</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5551588945352819</v>
+        <v>1.633723414891108</v>
       </c>
       <c r="C15">
-        <v>0.129313805898164</v>
+        <v>0.4180949739413791</v>
       </c>
       <c r="D15">
-        <v>0.1128591945358579</v>
+        <v>0.3275891987358648</v>
       </c>
       <c r="E15">
-        <v>0.1810967177381855</v>
+        <v>0.4950745901198985</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.133236548334139</v>
+        <v>1.32872691448037</v>
       </c>
       <c r="H15">
-        <v>1.052643954759475</v>
+        <v>0.762060094458576</v>
       </c>
       <c r="I15">
-        <v>0.8602831859921167</v>
+        <v>0.7009102146943818</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6633909531797428</v>
+        <v>2.006291001490496</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3845807938050143</v>
+        <v>1.112563707601474</v>
       </c>
       <c r="N15">
-        <v>1.850641484471005</v>
+        <v>0.8955194137091667</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5261934685585743</v>
+        <v>1.524795877056278</v>
       </c>
       <c r="C16">
-        <v>0.1218873773064217</v>
+        <v>0.3894851399608399</v>
       </c>
       <c r="D16">
-        <v>0.1070606218274435</v>
+        <v>0.3054750854253001</v>
       </c>
       <c r="E16">
-        <v>0.1728518125832181</v>
+        <v>0.4607498611581775</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.120593070360826</v>
+        <v>1.261979673107874</v>
       </c>
       <c r="H16">
-        <v>1.049731504489301</v>
+        <v>0.7358889550006893</v>
       </c>
       <c r="I16">
-        <v>0.8570738670878413</v>
+        <v>0.6760757348306115</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6278098640577241</v>
+        <v>1.871660840112327</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3653428865858075</v>
+        <v>1.036400311201277</v>
       </c>
       <c r="N16">
-        <v>1.859056016592277</v>
+        <v>0.912901309357494</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5084643276563554</v>
+        <v>1.458433075213691</v>
       </c>
       <c r="C17">
-        <v>0.1173401766546931</v>
+        <v>0.3721029000006126</v>
       </c>
       <c r="D17">
-        <v>0.1035140173672886</v>
+        <v>0.292031948437895</v>
       </c>
       <c r="E17">
-        <v>0.1678189030439938</v>
+        <v>0.4399850301517034</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.113013415682843</v>
+        <v>1.221947619810578</v>
       </c>
       <c r="H17">
-        <v>1.048073020818435</v>
+        <v>0.7203067589511818</v>
       </c>
       <c r="I17">
-        <v>0.8552204422421141</v>
+        <v>0.6613186345898185</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6060293491881055</v>
+        <v>1.789694545813404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3535811169850049</v>
+        <v>0.9901629665724414</v>
       </c>
       <c r="N17">
-        <v>1.864385373781417</v>
+        <v>0.9241328237401305</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4982817980488221</v>
+        <v>1.420419296021464</v>
       </c>
       <c r="C18">
-        <v>0.1147279039739431</v>
+        <v>0.3621623969770553</v>
       </c>
       <c r="D18">
-        <v>0.101477997358856</v>
+        <v>0.284341894385534</v>
       </c>
       <c r="E18">
-        <v>0.1649332363617617</v>
+        <v>0.4281413199725606</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.108718597485336</v>
+        <v>1.199239803854852</v>
       </c>
       <c r="H18">
-        <v>1.047166189592446</v>
+        <v>0.7115095207720969</v>
       </c>
       <c r="I18">
-        <v>0.8541967504090593</v>
+        <v>0.6529976066188254</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5935191545970326</v>
+        <v>1.742761763521514</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3468306915150166</v>
+        <v>0.9637340627356679</v>
       </c>
       <c r="N18">
-        <v>1.867512083602861</v>
+        <v>0.9307938127675186</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4948367134921909</v>
+        <v>1.407574148977545</v>
       </c>
       <c r="C19">
-        <v>0.113843972654422</v>
+        <v>0.3588061168534011</v>
       </c>
       <c r="D19">
-        <v>0.1007893032610667</v>
+        <v>0.2817451105912596</v>
       </c>
       <c r="E19">
-        <v>0.1639577592661396</v>
+        <v>0.4241476552925931</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.107275561702522</v>
+        <v>1.19160414976372</v>
       </c>
       <c r="H19">
-        <v>1.046867235954608</v>
+        <v>0.7085585198421143</v>
       </c>
       <c r="I19">
-        <v>0.8538574141883046</v>
+        <v>0.6502081014272179</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5892864017990007</v>
+        <v>1.726905939613005</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3445476182257039</v>
+        <v>0.9548129269560235</v>
       </c>
       <c r="N19">
-        <v>1.868581272306649</v>
+        <v>0.9330828921767704</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5103500934833392</v>
+        <v>1.465481042322011</v>
       </c>
       <c r="C20">
-        <v>0.1178239065213234</v>
+        <v>0.3739472334416689</v>
       </c>
       <c r="D20">
-        <v>0.1038911562290394</v>
+        <v>0.2934585680388011</v>
       </c>
       <c r="E20">
-        <v>0.1683537180624839</v>
+        <v>0.4421849966044746</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.113813573252912</v>
+        <v>1.22617582123911</v>
       </c>
       <c r="H20">
-        <v>1.048244695419811</v>
+        <v>0.7219482213222648</v>
       </c>
       <c r="I20">
-        <v>0.8554133582495353</v>
+        <v>0.6628720894309055</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6083461229868021</v>
+        <v>1.798397663373294</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3548316609261519</v>
+        <v>0.9950675835553753</v>
       </c>
       <c r="N20">
-        <v>1.863811697601271</v>
+        <v>0.9229162415306789</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.562649608148746</v>
+        <v>1.661999763986728</v>
       </c>
       <c r="C21">
-        <v>0.1312338698793383</v>
+        <v>0.4255377727859866</v>
       </c>
       <c r="D21">
-        <v>0.1143595706257088</v>
+        <v>0.3333393867414571</v>
       </c>
       <c r="E21">
-        <v>0.1832332106540235</v>
+        <v>0.5040334955496277</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.136555593055988</v>
+        <v>1.346258585743215</v>
       </c>
       <c r="H21">
-        <v>1.053435556092523</v>
+        <v>0.768970449537278</v>
       </c>
       <c r="I21">
-        <v>0.8611474881556305</v>
+        <v>0.7074772441021793</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6725919342460429</v>
+        <v>2.041257974742905</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3895601027941851</v>
+        <v>1.13238915174496</v>
       </c>
       <c r="N21">
-        <v>1.84852081258795</v>
+        <v>0.8912141538862386</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.59696163101097</v>
+        <v>1.792113313300916</v>
       </c>
       <c r="C22">
-        <v>0.1400268142569985</v>
+        <v>0.4598710354819673</v>
       </c>
       <c r="D22">
-        <v>0.1212362535360114</v>
+        <v>0.3598482961354819</v>
       </c>
       <c r="E22">
-        <v>0.193040915529842</v>
+        <v>0.545513423687666</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.151998855455105</v>
+        <v>1.427980534189771</v>
       </c>
       <c r="H22">
-        <v>1.057248055176302</v>
+        <v>0.8013622821667923</v>
       </c>
       <c r="I22">
-        <v>0.8652733755061917</v>
+        <v>0.7383090884345194</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.714735336835048</v>
+        <v>2.202256844260262</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4123893692304819</v>
+        <v>1.223901462668834</v>
       </c>
       <c r="N22">
-        <v>1.839075906082343</v>
+        <v>0.8724585930766438</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5786366741901929</v>
+        <v>1.722501190839864</v>
       </c>
       <c r="C23">
-        <v>0.1353311915183895</v>
+        <v>0.441484941556979</v>
       </c>
       <c r="D23">
-        <v>0.1175628241602027</v>
+        <v>0.3456557521658539</v>
       </c>
       <c r="E23">
-        <v>0.1877986681960664</v>
+        <v>0.5232691533418219</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.143703275673033</v>
+        <v>1.384046244508284</v>
       </c>
       <c r="H23">
-        <v>1.055174791489947</v>
+        <v>0.7839125626885561</v>
       </c>
       <c r="I23">
-        <v>0.8630366392355384</v>
+        <v>0.7216899035394491</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6922284088849153</v>
+        <v>2.116100625634374</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4001927686270648</v>
+        <v>1.174883216192697</v>
       </c>
       <c r="N23">
-        <v>1.84406654967664</v>
+        <v>0.8822801571016896</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5094975070096837</v>
+        <v>1.462294226243188</v>
       </c>
       <c r="C24">
-        <v>0.1176052061101132</v>
+        <v>0.3731132470291243</v>
       </c>
       <c r="D24">
-        <v>0.1037206425038164</v>
+        <v>0.2928134738834274</v>
       </c>
       <c r="E24">
-        <v>0.1681119038582466</v>
+        <v>0.4411900999708323</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.113451626342567</v>
+        <v>1.224263299109111</v>
       </c>
       <c r="H24">
-        <v>1.048166936008101</v>
+        <v>0.7212056161845624</v>
       </c>
       <c r="I24">
-        <v>0.855326010515931</v>
+        <v>0.6621692667858383</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6072986730733874</v>
+        <v>1.794462393982485</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3542662539904171</v>
+        <v>0.9928497310087749</v>
       </c>
       <c r="N24">
-        <v>1.864070861011427</v>
+        <v>0.9234656252929199</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4354857413298703</v>
+        <v>1.187461192772275</v>
       </c>
       <c r="C25">
-        <v>0.09860510391322919</v>
+        <v>0.3015048311589226</v>
       </c>
       <c r="D25">
-        <v>0.0889382113253987</v>
+        <v>0.2373900998056371</v>
       </c>
       <c r="E25">
-        <v>0.1472244532654017</v>
+        <v>0.3563865317842172</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.083295781067108</v>
+        <v>1.06385822342672</v>
       </c>
       <c r="H25">
-        <v>1.042407524555159</v>
+        <v>0.65979436256643</v>
       </c>
       <c r="I25">
-        <v>0.8486271917473616</v>
+        <v>0.6042548965729608</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5163522404556886</v>
+        <v>1.455448167685063</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3052852209564278</v>
+        <v>0.8026928877462467</v>
       </c>
       <c r="N25">
-        <v>1.887995392565131</v>
+        <v>0.9754910900044109</v>
       </c>
       <c r="O25">
         <v>0</v>
